--- a/Assignment1/src/data.xlsx
+++ b/Assignment1/src/data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludai/Desktop/Study/Github/fda/Assignment1/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiRan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7764" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
   <si>
     <t>f(X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,22 @@
   </si>
   <si>
     <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample Size = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample Size = 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample Size = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appendix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +131,30 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,8 +179,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -150,6 +206,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,18 +477,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="40.799999999999997" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="34.799999999999997" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -464,7 +557,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -502,7 +596,8 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -540,7 +635,8 @@
         <v>50.85</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -578,7 +674,8 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -616,7 +713,8 @@
         <v>46.27</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -654,7 +752,8 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -692,7 +791,8 @@
         <v>45.07</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -730,7 +830,8 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -768,7 +869,8 @@
         <v>89.73</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -806,7 +908,8 @@
         <v>286.26</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -844,7 +947,8 @@
         <v>927.78</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -882,914 +986,982 @@
         <v>17371.14</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="15" spans="1:14" ht="34.799999999999997" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>6</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>8</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>9</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>1.44</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>2.1680000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>3.33</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>8.1850000000000005</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>17.917999999999999</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>29.161000000000001</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>36.777000000000001</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>39.636000000000003</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>43.1</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>54.609000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>-2.8580000000000001</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>3.0379999999999998</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>8.9329999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>14.827999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>20.722999999999999</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>26.619</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>32.514000000000003</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>38.408999999999999</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>44.304000000000002</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>50.2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>-0.64600000000000002</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>3.262</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>7.7409999999999997</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>12.79</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>18.411000000000001</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>24.602</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>31.364999999999998</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>38.698</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>46.601999999999997</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>55.076999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>4.5490000000000004</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>10.728999999999999</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>18.361000000000001</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>26.576000000000001</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>34.503999999999998</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>41.276000000000003</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>46.021999999999998</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>47.872</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.54100000000000004</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>4.4850000000000003</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>10.811999999999999</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>18.530999999999999</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>26.716000000000001</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>34.502000000000002</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>41.091000000000001</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>45.747999999999998</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>47.801000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>2.48</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>1.5249999999999999</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>2.7269999999999999</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>8.8049999999999997</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>18.527000000000001</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>28.713000000000001</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>36.244999999999997</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>40.076999999999998</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>43.237000000000002</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>54.838000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.46600000000000003</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0.222</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.153</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>0.121</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0.123</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>0.161</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>0.23499999999999999</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:14">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>0.33700000000000002</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>0.32300000000000001</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>0.27300000000000002</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>0.39200000000000002</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>0.121</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>0.123</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>0.186</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>0.34399999999999997</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>1.4410000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>0.223</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>0.154</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>0.222</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>0.26500000000000001</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>0.35499999999999998</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>4.9470000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>5.5E-2</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>0.73</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="28" spans="1:14" ht="34.799999999999997" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="I27">
+      <c r="I29">
         <v>6</v>
       </c>
-      <c r="J27">
+      <c r="J29">
         <v>7</v>
       </c>
-      <c r="K27">
+      <c r="K29">
         <v>8</v>
       </c>
-      <c r="L27">
+      <c r="L29">
         <v>9</v>
       </c>
-      <c r="M27">
+      <c r="M29">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>1.4402999999999999</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>2.1677</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>3.33</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>8.1853999999999996</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <v>17.918299999999999</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <v>29.161000000000001</v>
       </c>
-      <c r="J28">
+      <c r="J30">
         <v>36.777299999999997</v>
       </c>
-      <c r="K28">
+      <c r="K30">
         <v>39.636000000000003</v>
       </c>
-      <c r="L28">
+      <c r="L30">
         <v>43.099800000000002</v>
       </c>
-      <c r="M28">
+      <c r="M30">
         <v>54.609299999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="31" spans="1:14">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-2.7968999999999999</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>3.0971000000000002</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>8.9909999999999997</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>14.885</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>20.779</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>26.672999999999998</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>32.566899999999997</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>38.460900000000002</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>44.354900000000001</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>50.248899999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>-0.58840000000000003</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>3.2766000000000002</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>7.7214999999999998</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>12.7463</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <v>18.351099999999999</v>
       </c>
-      <c r="I30">
+      <c r="I32">
         <v>24.535900000000002</v>
       </c>
-      <c r="J30">
+      <c r="J32">
         <v>31.300599999999999</v>
       </c>
-      <c r="K30">
+      <c r="K32">
         <v>38.645200000000003</v>
       </c>
-      <c r="L30">
+      <c r="L32">
         <v>46.569800000000001</v>
       </c>
-      <c r="M30">
+      <c r="M32">
         <v>55.074300000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="33" spans="1:13">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>-2.4299999999999999E-2</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <v>0.68059999999999998</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <v>4.5530999999999997</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <v>10.7309</v>
       </c>
-      <c r="H31">
+      <c r="H33">
         <v>18.351400000000002</v>
       </c>
-      <c r="I31">
+      <c r="I33">
         <v>26.552199999999999</v>
       </c>
-      <c r="J31">
+      <c r="J33">
         <v>34.4709</v>
       </c>
-      <c r="K31">
+      <c r="K33">
         <v>41.244900000000001</v>
       </c>
-      <c r="L31">
+      <c r="L33">
         <v>46.011899999999997</v>
       </c>
-      <c r="M31">
+      <c r="M33">
         <v>47.909399999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="34" spans="1:13">
+      <c r="A34" s="3"/>
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>-0.15970000000000001</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>0.45319999999999999</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>4.4916999999999998</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>10.862399999999999</v>
       </c>
-      <c r="H32">
+      <c r="H34">
         <v>18.564299999999999</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>26.688099999999999</v>
       </c>
-      <c r="J32">
+      <c r="J34">
         <v>34.417200000000001</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>41.026600000000002</v>
       </c>
-      <c r="L32">
+      <c r="L34">
         <v>45.883800000000001</v>
       </c>
-      <c r="M32">
+      <c r="M34">
         <v>48.448300000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>2.4813000000000001</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>1.4532</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>2.7151000000000001</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>8.8438999999999997</v>
       </c>
-      <c r="H33">
+      <c r="H35">
         <v>18.558599999999998</v>
       </c>
-      <c r="I33">
+      <c r="I35">
         <v>28.695799999999998</v>
       </c>
-      <c r="J33">
+      <c r="J35">
         <v>36.185600000000001</v>
       </c>
-      <c r="K33">
+      <c r="K35">
         <v>40.027099999999997</v>
       </c>
-      <c r="L33">
+      <c r="L35">
         <v>43.264200000000002</v>
       </c>
-      <c r="M33">
+      <c r="M35">
         <v>54.960900000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="36" spans="1:13">
+      <c r="A36" s="3"/>
+      <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>2.8E-3</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H34">
+      <c r="H36">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I34">
+      <c r="I36">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J34">
+      <c r="J36">
         <v>1.5E-3</v>
       </c>
-      <c r="K34">
+      <c r="K36">
         <v>2E-3</v>
       </c>
-      <c r="L34">
+      <c r="L36">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="M34">
+      <c r="M36">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="37" spans="1:13">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H35">
+      <c r="H37">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I35">
+      <c r="I37">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J35">
+      <c r="J37">
         <v>2E-3</v>
       </c>
-      <c r="K35">
+      <c r="K37">
         <v>2E-3</v>
-      </c>
-      <c r="L35">
-        <v>3.8E-3</v>
-      </c>
-      <c r="M35">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="E36">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="F36">
-        <v>3.3E-3</v>
-      </c>
-      <c r="G36">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H36">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="I36">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J36">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K36">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="L36">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="M36">
-        <v>1.43E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="E37">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="F37">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G37">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="H37">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I37">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="J37">
-        <v>3.3E-3</v>
-      </c>
-      <c r="K37">
-        <v>4.1999999999999997E-3</v>
       </c>
       <c r="L37">
         <v>3.8E-3</v>
       </c>
       <c r="M37">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E38">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="F38">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G38">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H38">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K38">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="L38">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M38">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="E39">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="F39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G39">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="H39">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I39">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J39">
+        <v>3.3E-3</v>
+      </c>
+      <c r="K39">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="L39">
+        <v>3.8E-3</v>
+      </c>
+      <c r="M39">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>4.3E-3</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L38">
+      <c r="L40">
         <v>6.6E-3</v>
       </c>
-      <c r="M38">
+      <c r="M40">
         <v>3.32E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A17:A27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>